--- a/assets/data/arquivos iniciais/Plano_acao___Contabil_Renuncia__15.7_ (1).xlsx
+++ b/assets/data/arquivos iniciais/Plano_acao___Contabil_Renuncia__15.7_ (1).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sefazmg-my.sharepoint.com/personal/pedro_cardoso_fazenda_mg_gov_br/Documents/Documentos/Planos de ação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sefazmg-my.sharepoint.com/personal/pedro_cardoso_fazenda_mg_gov_br/Documents/Documentos/planos_acao/assets/data/arquivos iniciais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{BB35230F-BFA6-407C-9133-4788B7E09699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89341F91-52E1-4156-85BC-468C89F42E79}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{BB35230F-BFA6-407C-9133-4788B7E09699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6B7F503-C30A-469D-BA2A-4EBFC2EEC1A5}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14430" windowHeight="15585" xr2:uid="{A120D98A-8AF1-4AB1-A1D6-F35169A4DC39}"/>
+    <workbookView xWindow="-16320" yWindow="-1230" windowWidth="16440" windowHeight="28320" xr2:uid="{A120D98A-8AF1-4AB1-A1D6-F35169A4DC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Proposta Plano de Ação " sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Proposta Plano de Ação '!$B$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Proposta Plano de Ação '!$B$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -170,9 +170,6 @@
     <t xml:space="preserve">3.1.1. </t>
   </si>
   <si>
-    <t>3.2.2.</t>
-  </si>
-  <si>
     <t>3.2.</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>Prazo prorrogado conforme Despacho 840, Documento n.º 118171326</t>
+  </si>
+  <si>
+    <t>3.1.2.</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,13 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +619,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,28 +634,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,16 +652,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,17 +750,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -789,14 +768,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1134,72 +1141,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30915EED-E2FC-4ACC-AA66-B2757D1DB065}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="7.85546875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="83" style="44" customWidth="1"/>
-    <col min="10" max="10" width="82.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" style="33" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="83" style="36" customWidth="1"/>
+    <col min="11" max="11" width="82.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
       <c r="E1" s="63"/>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="I1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>IF(D2&lt;&gt;"",D2,IF(C2&lt;&gt;"",C2,B2))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="38">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="29">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="59">
+        <v>45888</v>
+      </c>
+      <c r="H2" s="60">
         <v>45930</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A26" si="0">IF(D3&lt;&gt;"",D3,IF(C3&lt;&gt;"",C3,B3))</f>
         <v>2</v>
@@ -1210,176 +1223,197 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="60">
+        <v>45839</v>
+      </c>
+      <c r="H3" s="60">
         <v>45953</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="str">
+      <c r="J3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="str">
         <f t="shared" si="0"/>
         <v>2.1.</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="64">
+        <v>45839</v>
+      </c>
+      <c r="H4" s="64">
+        <v>45850</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2.</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="64">
+        <v>45839</v>
+      </c>
+      <c r="H5" s="64">
+        <v>45850</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>2.3.</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="64">
+        <v>45839</v>
+      </c>
+      <c r="H6" s="64">
+        <v>45850</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="52" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>2..4.</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="64">
+        <v>45839</v>
+      </c>
+      <c r="H7" s="64">
+        <v>45881</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="52" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>2.5.</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="13">
-        <v>45850</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="F8" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="64">
+        <v>45839</v>
+      </c>
+      <c r="H8" s="64">
+        <v>45916</v>
+      </c>
+      <c r="I8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2.2.</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="13">
-        <v>45850</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="J8" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="64">
+        <v>45916</v>
+      </c>
+      <c r="H9" s="64">
+        <v>45953</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2.3.</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="13">
-        <v>45850</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2..4.</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="13">
-        <v>45881</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2.5.</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="13">
-        <v>45916</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="13">
-        <v>45953</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1389,407 +1423,458 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="60">
+        <v>45809</v>
+      </c>
+      <c r="H10" s="60">
+        <v>46081</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3.1.</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="64">
+        <v>45809</v>
+      </c>
+      <c r="H11" s="64">
+        <v>45820</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3.1.1. </v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="64">
+        <v>45809</v>
+      </c>
+      <c r="H12" s="64">
+        <v>45820</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="23" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.1.2.</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="64">
+        <v>45901</v>
+      </c>
+      <c r="H13" s="64">
+        <v>45916</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" s="22" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2.</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H14" s="60">
+        <v>46081</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="23" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2.1.</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H15" s="64">
+        <v>46052</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2.2.1.</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H16" s="64">
+        <v>46038</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2.2.2.</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H17" s="64">
+        <v>46038</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2.2.3.</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H18" s="64">
+        <v>46038</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2.2.4.</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H19" s="64">
+        <v>46038</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2.2.5.</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H20" s="64">
+        <v>46038</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3.2.2.6. </v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="G21" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H21" s="64">
+        <v>46038</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2.2.7.</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="60">
+        <v>45962</v>
+      </c>
+      <c r="H22" s="64">
+        <v>46038</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.3.</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="60">
+        <v>46039</v>
+      </c>
+      <c r="H23" s="60">
+        <v>46072</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.4.</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="21">
+        <v>46054</v>
+      </c>
+      <c r="H24" s="21">
+        <v>46079</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.5.</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="21">
+        <v>46054</v>
+      </c>
+      <c r="H25" s="21">
         <v>46081</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3.6.</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="21">
+        <v>46082</v>
+      </c>
+      <c r="H26" s="21">
+        <v>46157</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.1.</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="29">
-        <v>45820</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="31" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">3.1.1. </v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="13">
-        <v>45820</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.2.</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="13">
-        <v>45916</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" s="30" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="29">
-        <v>46081</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="31" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.1.</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="13">
-        <v>46052</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.2.1.</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="13">
-        <v>46038</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.2.2.</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="13">
-        <v>46038</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.2.3.</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13">
-        <v>46038</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.2.4.</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="13">
-        <v>46038</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.2.5.</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="13">
-        <v>46038</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">3.2.2.6. </v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="13">
-        <v>46038</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.2.7.</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="13">
-        <v>46038</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" s="37" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="29">
-        <v>46072</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:9" s="37" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="29">
-        <v>46079</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="36"/>
-    </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.5.</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="29">
-        <v>46081</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>3.6.</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="29">
-        <v>46157</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="45"/>
+      <c r="J26" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
